--- a/biology/Médecine/Bernard_Beryl_Brodie/Bernard_Beryl_Brodie.xlsx
+++ b/biology/Médecine/Bernard_Beryl_Brodie/Bernard_Beryl_Brodie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernard Beryl Brodie (7 août 1907 - 28 février 1989), est un chercheur sur la pharmacothérapie, considéré par beaucoup comme le fondateur de la pharmacologie moderne dans les années 1940 et 1950. Il est une figure majeure dans le domaine du métabolisme des médicaments, l'étude de la façon dont les médicaments interagissent dans le corps et comment ils sont absorbés. Membre de l'Académie nationale des sciences des États-Unis, Brodie est l'un des fondateurs et ancien chef du Laboratoire de pharmacologie chimique du National Heart Institute des National Institutes of Health de Bethesda, dans le Maryland.
 </t>
@@ -511,9 +523,11 @@
           <t>Jeunesse et éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Liverpool en 1907, dans une famille juive [1] Brodie fait ses études de premier cycle à l'Université McGill et obtient un doctorat. en chimie à l'Université de New York en 1935. Après avoir obtenu son diplôme de NYU, il y est professeur associé jusqu'en 1950, date à laquelle il rejoint les National Institutes of Health. Il y dirige le laboratoire de pharmacologie jusqu'à sa retraite en 1970, mais reste actif en tant que consultant senior auprès des laboratoires Hoffmann-LaRoche à Nutley, New Jersey et en tant que professeur de pharmacologie à l'Université d'État de Pennsylvanie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Liverpool en 1907, dans une famille juive  Brodie fait ses études de premier cycle à l'Université McGill et obtient un doctorat. en chimie à l'Université de New York en 1935. Après avoir obtenu son diplôme de NYU, il y est professeur associé jusqu'en 1950, date à laquelle il rejoint les National Institutes of Health. Il y dirige le laboratoire de pharmacologie jusqu'à sa retraite en 1970, mais reste actif en tant que consultant senior auprès des laboratoires Hoffmann-LaRoche à Nutley, New Jersey et en tant que professeur de pharmacologie à l'Université d'État de Pennsylvanie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Recherches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa découverte la plus importante est que les réponses animales et humaines aux médicaments ne diffèrent pas de manière significative. Ce pionnier du concept selon lequel les niveaux de médicaments dans le sang doivent guider les dosages thérapeutiques et il établit la base de la chimiothérapie du paludisme.
 Avec Julius Axelrod, il découvre que l'acétanilide et la phénacétine se métabolisent tous deux en paracétamol. Contrairement à ses précurseurs, le paracétamol ne provoque pas de méthémoglobinémie chez l'homme.
@@ -577,13 +593,15 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1967, Brodie reçoit le Prix Albert-Lasker pour la recherche médicale fondamentale pour ses plus de 30 ans de contributions à la pharmacologie biochimique. Ses travaux ont une profonde influence sur l'utilisation des médicaments dans le traitement des maladies cardiovasculaires, des troubles mentaux et émotionnels et du cancer.
 Brodie est élu membre de l'Académie nationale des sciences en 1966 et est membre honoraire de nombreuses académies scientifiques aux États-Unis et à l'étranger. En plus du prix Lasker, il reçoit le Distinguished Service Award du Department of Health, Education and Welfare en 1958, le prix Tollman en pharmacologie en 1963, la National Medal of Science en 1968 et le Golden Plate Award du l'American Academy of Achievement en 1970.
 Il est l'auteur ou le co-auteur de plus de 350 manuscrits scientifiques.
-Le département de neurosciences de l'Université de Cagliari est nommé en son honneur par un ancien étudiant, Gian Luigi Gessa (en) [2].
-Brodie est décédé en 1989 à Charlottesville, en Virginie à l'âge de 81 ans [3],[4]. Bernard Brodie est un frère du chercheur sur la poliomyélite Maurice Brodie (en) [5].
+Le département de neurosciences de l'Université de Cagliari est nommé en son honneur par un ancien étudiant, Gian Luigi Gessa (en) .
+Brodie est décédé en 1989 à Charlottesville, en Virginie à l'âge de 81 ans ,. Bernard Brodie est un frère du chercheur sur la poliomyélite Maurice Brodie (en) .
 </t>
         </is>
       </c>
